--- a/Analytics/SP1/TeamFirstCard_sp1.xlsx
+++ b/Analytics/SP1/TeamFirstCard_sp1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="43">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -810,10 +810,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -821,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -964,10 +964,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -1107,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -1789,9 +1789,20 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1855,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -1866,10 +1877,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1877,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1888,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -2218,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2229,9 +2240,20 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2812,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -2823,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -2834,10 +2856,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -2845,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>

--- a/Analytics/SP1/TeamFirstCard_sp1.xlsx
+++ b/Analytics/SP1/TeamFirstCard_sp1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -55,6 +55,30 @@
     <t>8</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -70,6 +94,45 @@
     <t>13</t>
   </si>
   <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -77,81 +140,6 @@
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
   </si>
 </sst>
 </file>
@@ -216,10 +204,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,10 +215,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,10 +226,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,10 +237,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,10 +248,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,10 +259,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,10 +270,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,108 +281,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -414,7 +303,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -425,10 +314,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -436,10 +325,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -447,10 +336,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -458,10 +347,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -469,10 +358,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -480,10 +369,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -491,10 +380,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -502,141 +391,97 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -656,7 +501,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -667,10 +512,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -678,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -689,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -700,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -711,10 +556,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -722,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -736,7 +581,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -744,119 +589,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -876,7 +611,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -887,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -909,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -920,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -931,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -942,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -953,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -964,119 +699,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1107,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1118,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1129,10 +776,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1143,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1151,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1173,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1184,141 +831,64 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1349,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1360,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1371,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1393,10 +963,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +974,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1426,141 +996,53 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1591,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1602,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1613,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1624,10 +1106,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1635,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1646,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1657,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1668,141 +1150,53 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1833,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -1844,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1855,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1866,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1877,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1888,10 +1282,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1899,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1910,130 +1304,53 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2064,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2075,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2086,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -2097,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -2108,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2119,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2130,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2141,119 +1458,42 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2273,7 +1513,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2284,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2295,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2306,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2317,10 +1557,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2328,10 +1568,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2339,10 +1579,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2350,108 +1590,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2471,7 +1612,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2482,10 +1623,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2496,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2504,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +1656,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2526,10 +1667,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2537,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2548,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -2559,141 +1700,53 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2713,7 +1766,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2724,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2735,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2746,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2757,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2768,10 +1821,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2779,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2790,10 +1843,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -2801,142 +1854,65 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/TeamFirstCard_sp1.xlsx
+++ b/Analytics/SP1/TeamFirstCard_sp1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="42">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -55,6 +55,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Villarreal</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Valencia</t>
   </si>
   <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
     <t>Mallorca</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -94,52 +97,58 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Sociedad</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
     <t>Ath Madrid</t>
   </si>
   <si>
+    <t>Getafe</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Getafe</t>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
   </si>
   <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Leganes</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Espanol</t>
   </si>
   <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -215,7 +224,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -226,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -237,7 +246,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -248,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -259,7 +268,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -270,7 +279,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -281,9 +290,20 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -303,7 +323,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -314,10 +334,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -325,7 +345,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -336,7 +356,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -347,10 +367,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -358,10 +378,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -369,10 +389,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -383,7 +403,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -391,18 +411,18 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -410,10 +430,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -421,10 +441,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -432,43 +452,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -476,12 +496,34 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -501,7 +543,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -512,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -534,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -567,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -578,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -589,9 +631,53 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -611,7 +697,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -622,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -633,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -644,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -655,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -666,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -677,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -699,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -707,10 +793,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -718,12 +804,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -754,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -765,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -776,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -787,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -798,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -809,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -820,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -831,29 +928,29 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -861,10 +958,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -872,10 +969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -883,12 +980,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -919,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -933,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -941,10 +1060,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -952,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -974,10 +1093,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -985,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -996,40 +1115,40 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1037,12 +1156,89 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1073,10 +1269,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -1084,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -1098,7 +1294,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1106,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1117,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1128,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1158,45 +1354,100 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1227,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -1238,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1249,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1260,10 +1511,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1271,10 +1522,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1282,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1293,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1304,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1312,10 +1563,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1323,10 +1574,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1334,10 +1585,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1345,12 +1596,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1381,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1392,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1403,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1414,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1425,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1436,10 +1709,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1447,10 +1720,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1466,10 +1739,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1477,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1488,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1513,7 +1786,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1524,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1535,10 +1808,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1546,10 +1819,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1557,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1568,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1579,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1590,9 +1863,31 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1612,7 +1907,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1623,10 +1918,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1645,10 +1940,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1656,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1678,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1689,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1700,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1708,45 +2003,67 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1766,7 +2083,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1777,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1799,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1810,10 +2127,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1832,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1843,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1854,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1862,21 +2179,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1884,10 +2201,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1895,10 +2212,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1906,12 +2223,56 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
